--- a/static/uploads/Info.xlsx
+++ b/static/uploads/Info.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USERPC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1E2886-1838-40DE-A9D4-FC0FD9292648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76FCF15-93F9-419E-A632-26D9A2F9665D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{1A1DC7F6-F52B-4EA5-BCF0-033A43FF9F50}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ad">'Sheet 1'!$A:$A</definedName>
+    <definedName name="ad">Sheet1!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -534,7 +534,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
